--- a/Excel Files for CapstoenCorner/STUDENT.xlsx
+++ b/Excel Files for CapstoenCorner/STUDENT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\averageProgrammer\Desktop\Excel Files for CapstoenCorner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marfe noriella\Desktop\Fnl_CAPSTONE_CORNER\Excel Files for CapstoenCorner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA29FBFA-AA7E-4266-89A0-63A968ECD4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80558C50-ADE5-49B2-B22F-07E33BEF8719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>S_ID</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Alfred D. Paris</t>
   </si>
   <si>
-    <t>20-SC-0402</t>
-  </si>
-  <si>
     <t>Rea Santos</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>20-SC-0153</t>
   </si>
   <si>
-    <t>20-SC-0448</t>
-  </si>
-  <si>
     <t>ARCH_ID</t>
   </si>
   <si>
@@ -73,6 +67,102 @@
   </si>
   <si>
     <t>IT-4</t>
+  </si>
+  <si>
+    <t>20-SC-0148</t>
+  </si>
+  <si>
+    <t>20-SC-0149</t>
+  </si>
+  <si>
+    <t>20-SC-0150</t>
+  </si>
+  <si>
+    <t>20-SC-0151</t>
+  </si>
+  <si>
+    <t>20-SC-0152</t>
+  </si>
+  <si>
+    <t>20-SC-0154</t>
+  </si>
+  <si>
+    <t>20-SC-0155</t>
+  </si>
+  <si>
+    <t>20-SC-0156</t>
+  </si>
+  <si>
+    <t>20-SC-0157</t>
+  </si>
+  <si>
+    <t>20-SC-0158</t>
+  </si>
+  <si>
+    <t>20-SC-0159</t>
+  </si>
+  <si>
+    <t>20-SC-0160</t>
+  </si>
+  <si>
+    <t>20-SC-0161</t>
+  </si>
+  <si>
+    <t>20-SC-0162</t>
+  </si>
+  <si>
+    <t>20-SC-0163</t>
+  </si>
+  <si>
+    <t>20-SC-0164</t>
+  </si>
+  <si>
+    <t>20-SC-0165</t>
+  </si>
+  <si>
+    <t>jayson Ventura</t>
+  </si>
+  <si>
+    <t>Jayson Rosario</t>
+  </si>
+  <si>
+    <t>Jolina Rosario</t>
+  </si>
+  <si>
+    <t>Alfred De Vega</t>
+  </si>
+  <si>
+    <t>Alfred Sanchez</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Diosdado Sanchez</t>
+  </si>
+  <si>
+    <t>Diosdado Paris</t>
+  </si>
+  <si>
+    <t>Diosgago Devega</t>
+  </si>
+  <si>
+    <t>Jayson Fernandez</t>
+  </si>
+  <si>
+    <t>Alfred Vinluan</t>
+  </si>
+  <si>
+    <t>Jayson Panganiban</t>
+  </si>
+  <si>
+    <t>Jomart Tamayo</t>
+  </si>
+  <si>
+    <t>Jayson Boysen</t>
+  </si>
+  <si>
+    <t>Alfred Safegaurd</t>
   </si>
 </sst>
 </file>
@@ -396,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -433,49 +523,259 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
